--- a/readme/readme.xlsx
+++ b/readme/readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huongnv\app\scapp\api\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F925FF-7580-4488-A2E5-69793F9AEA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF8C6B5-E579-4FBD-9941-132A62BFB57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rd_en" sheetId="2" r:id="rId1"/>
@@ -19,18 +19,27 @@
     <sheet name="file_en" sheetId="4" r:id="rId4"/>
     <sheet name="file_ja" sheetId="5" r:id="rId5"/>
     <sheet name="file_vi" sheetId="6" r:id="rId6"/>
+    <sheet name="mail_en" sheetId="7" r:id="rId7"/>
+    <sheet name="mail_ja" sheetId="8" r:id="rId8"/>
+    <sheet name="mail_vi" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="100">
   <si>
     <t>※以下の各URLに参照してください。</t>
   </si>
@@ -74,9 +83,6 @@
     <t>===== ############################## =====</t>
   </si>
   <si>
-    <t>APIs for SC system !!!</t>
-  </si>
-  <si>
     <t>1, Files Upload Download API</t>
   </si>
   <si>
@@ -140,9 +146,6 @@
     <t>[tcnksm]</t>
   </si>
   <si>
-    <t>APIs SCシステム専用 !!!</t>
-  </si>
-  <si>
     <t>## [概要]</t>
   </si>
   <si>
@@ -158,10 +161,6 @@
     <t>## [著者]</t>
   </si>
   <si>
-    <t>APIs Chi su dung cho he thong SC !!!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1, ファイルアップロードやダウンロード API</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,18 +181,235 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>File API for SC system !!!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルAPI SCシステム専用 !!!</t>
-    <rPh sb="14" eb="16">
+    <t>### File API for SC system !!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### APIs for SC system !!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### APIs SCシステム専用 !!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### APIs Chi su dung cho he thong SC !!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### ファイルAPI SCシステム専用 !!!</t>
+    <rPh sb="18" eb="20">
       <t>センヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>File API su dung cho ht thong SC !!!</t>
+    <t>### File API su dung cho ht thong SC !!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### Mail API for SC system !!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### メールAPI SCシステム専用 !!!</t>
+    <rPh sb="17" eb="19">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### Mail API su dung cho ht thong SC !!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>## []</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password: XXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file=@path/filename.ext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file=@NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "auth": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,"port": 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,"home": "/home/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,"files": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "filename": "001-home.svg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,"data": base64"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,"password": "XXXXXXXXX"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>## [Basic Authorization]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>## [API Key]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>又は</t>
+    <rPh sb="0" eb="1">
+      <t>マタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>## [Form]を使用する場合</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            "filename": "002-home.svg"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>## [JSONの場合]を使用する場合</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 個別Serverを使用する場合、「auth」の情報を必要</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username: SC System Acount ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apikey: SC System APIキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,"username": "Server acount id"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,"username": "Server acount id"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        "host": "sc-sftp.co.jp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "host": "sc-sftp.co.jp"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sc-system/api</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://sc-api.co.jp/putfiles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://sc-api.co.jp/getfiles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,"password": "XXXXXXXXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,"flag": "file"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,"zip": true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,"path": "/home/huongnv/20191127040812.761"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,"zippw": "1234"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag:[json/file]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip:[True/False]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zippw:XXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            "filename": "001-home.svg"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filename:001-home.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,"path": "/home/huongnv/20191127040812.761"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path:/home/huongnv/20191127040812.761</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -201,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +430,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,16 +458,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F718D9-7C69-4DA5-9B4F-E2776EE3B1EA}">
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -540,22 +771,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -565,62 +796,62 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -630,7 +861,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -640,7 +871,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -650,7 +881,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -660,7 +891,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -670,7 +901,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -690,7 +921,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -710,12 +941,12 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -725,12 +956,12 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -750,7 +981,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -765,27 +996,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -795,62 +1026,62 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -860,7 +1091,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -870,7 +1101,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -880,7 +1111,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -890,7 +1121,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -900,7 +1131,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -920,7 +1151,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -940,12 +1171,12 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -955,12 +1186,12 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -971,6 +1202,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -979,7 +1211,7 @@
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD47"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -994,22 +1226,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1019,62 +1251,62 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -1084,7 +1316,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1094,7 +1326,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -1104,7 +1336,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1114,7 +1346,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -1124,7 +1356,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1144,7 +1376,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -1164,12 +1396,12 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -1179,17 +1411,17 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>12</v>
+      <c r="A47" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1201,13 +1433,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BF28BE-864A-4A5F-8706-9B3DC2B8BEF4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="54.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1216,12 +1451,838 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{A1E31D45-489A-4A4B-B0B7-AE9699EDE1E5}"/>
+    <hyperlink ref="A42" r:id="rId2" xr:uid="{3BB0E671-7F35-4F6E-82FC-C63EA2480F63}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F82835-4156-4CDD-9C92-14832506D1C4}">
+  <dimension ref="A1:A71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="54.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{2BE14842-9A13-4125-8CDC-60E6B54F3E56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4466A96B-27E3-4047-86C9-801DF7CFC2D5}">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="54.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1230,8 +2291,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F82835-4156-4CDD-9C92-14832506D1C4}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1959E0-281F-407F-B203-7CDDA810E70B}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1247,7 +2308,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1258,15 +2319,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4466A96B-27E3-4047-86C9-801DF7CFC2D5}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679923AF-6A02-493F-AB9E-B9F3405B0CE1}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1278,7 +2340,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1290,4 +2352,41 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6850EC9F-F11E-4031-AA5A-F12C33D1AE33}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>